--- a/import/data_import/PNC00001 UCB-J_consortium/PN000006_UCBJ-Leuven2/PublicnEUro_record_Group2.xlsx
+++ b/import/data_import/PNC00001 UCB-J_consortium/PN000006_UCBJ-Leuven2/PublicnEUro_record_Group2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\UCBJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PNC00001 UCB-J_consortium\PN000006_UCBJ-Leuven2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B3B55-F8C5-4B2B-8290-453F84488111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511552F-0270-4FC4-8512-4906FA6D0CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">Leuven PET UCB-J dataset 2 in control participants </t>
   </si>
   <si>
-    <t>10.70883/GUMA1819</t>
-  </si>
-  <si>
-    <t>PN000007</t>
+    <t>PN000006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.70883/FIYQ9929</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,6 +963,9 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1212,7 +1215,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,20 +1226,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -1284,7 +1287,7 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="60" t="s">
@@ -1295,7 +1298,7 @@
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="60" t="s">
         <v>60</v>
       </c>
@@ -1326,7 +1329,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1352,7 +1355,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1376,7 +1379,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="83" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1402,7 +1405,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1522,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
@@ -1532,8 +1535,8 @@
       <c r="B23" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>81</v>
+      <c r="C23" s="76" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1553,6 +1556,7 @@
     <hyperlink ref="B16" r:id="rId5" xr:uid="{042E520D-DC3A-465C-A1A0-E0407B43AE55}"/>
     <hyperlink ref="B7" r:id="rId6" location="dataset_descriptionjson" xr:uid="{F6C4DD7F-BDF1-415D-A415-DE85F43495B0}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{FC9DB523-70D6-417A-B2D7-B4597C9DE102}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{FB1A23DC-884A-4E19-8F1C-93C1B6544F2C}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/import/data_import/PNC00001 UCB-J_consortium/PN000006_UCBJ-Leuven2/PublicnEUro_record_Group2.xlsx
+++ b/import/data_import/PNC00001 UCB-J_consortium/PN000006_UCBJ-Leuven2/PublicnEUro_record_Group2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PNC00001 UCB-J_consortium\PN000006_UCBJ-Leuven2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511552F-0270-4FC4-8512-4906FA6D0CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E343707-928B-47B8-8984-2556F226430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
     <sheet name="participants_info" sheetId="6" r:id="rId2"/>
     <sheet name="data-controller" sheetId="2" r:id="rId3"/>
-    <sheet name="authors" sheetId="3" r:id="rId4"/>
-    <sheet name="dataset curators" sheetId="7" r:id="rId5"/>
-    <sheet name="funding" sheetId="4" r:id="rId6"/>
-    <sheet name="publications" sheetId="5" r:id="rId7"/>
+    <sheet name="DUA" sheetId="8" r:id="rId4"/>
+    <sheet name="authors" sheetId="3" r:id="rId5"/>
+    <sheet name="dataset curators" sheetId="7" r:id="rId6"/>
+    <sheet name="funding" sheetId="4" r:id="rId7"/>
+    <sheet name="publications" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t># bold fields are required</t>
   </si>
@@ -297,6 +298,44 @@
   </si>
   <si>
     <t>https://doi.org/10.70883/FIYQ9929</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses  + data controller oversight</t>
+  </si>
+  <si>
+    <t>i.e.</t>
+  </si>
+  <si>
+    <t>None (CCBY)</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>By accepting this agreement, I become the data controller (as defined under the GDPR) of the data that I have access to, and am responsible that I access these data under the following terms:
+1.	I will comply with all relevant rules and regulations imposed by my institution and my government. Rules established in this agreement thus take place in addition to existing general data protection regulations that are applicable in my country.
+2.	I will not attempt to establish or retrieve the identity of the study participants. I will not link these data to any other database in a way that could provide identifying information. I shall not request the pseudonymisation key that would link these data to an individual’s personal information, nor will I accept any additional information about individual participants under this Data Use Agreement.
+3.	I will not redistribute these data or share access to these data with others, unless they have independently applied and been granted access to these data, i.e., signed this Data Use Agreement. This includes individuals in my institution.
+4.	I will reference the specific source of the accessed data when publicly presenting any results or algorithms that benefited from their use: (a) Papers, book chapters, books, posters, oral presentations, and all other presentations of results derived from the data should acknowledge the origin of the data as follows: “Data were provided (in part) by the Department of Movement Sciences, KU Leuven, Belgium”. (b) Authors of publications or presentations using the data should cite relevant publications describing the methods developed and used by the Department of Movement Sciences to acquire and process the data. The specific publications that are appropriate to cite in any given study will depend on what the data were used and for what purposes. When applicable, a list of publications will be included in the collection. (c) Neither the Department of Movement Sciences or Leuven, nor the researchers that provide this data will be liable for any results and/or derived data. They shall not be included as an author of publications or presentations without consent.
+5.	Failure to abide by these guidelines will result in termination of my privileges to access these data.</t>
+  </si>
+  <si>
+    <t>only users from EU and adequate countries</t>
+  </si>
+  <si>
+    <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses</t>
+  </si>
+  <si>
+    <t>only users from EU and adequate countries + data controller oversight</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Content</t>
   </si>
 </sst>
 </file>
@@ -306,11 +345,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,6 +519,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -796,17 +863,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,64 +886,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -885,116 +952,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1226,20 +1303,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="85" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="82"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -1287,7 +1364,7 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="89" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="60" t="s">
@@ -1298,7 +1375,7 @@
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="86"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="60" t="s">
         <v>60</v>
       </c>
@@ -1329,7 +1406,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="87" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1355,7 +1432,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1379,7 +1456,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="87" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1405,7 +1482,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2702,6 +2779,125 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353F9021-F23B-4DC5-9153-778A29B7D5E8}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="79.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B4" s="92"/>
+      <c r="D4" s="80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="92"/>
+      <c r="D5" s="78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B6" s="92"/>
+      <c r="D6" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="92"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="92"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="92"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="92"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="92"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="92"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="92"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="92"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="92"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="92"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="92"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="92"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="92"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B2" xr:uid="{2DBC20A5-DF87-4E41-B9AB-621A137CFAFA}">
+      <formula1>$D$2:$D$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -3786,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845FEB05-2599-4045-8FC7-E4172C92513F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -3852,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -4914,7 +5110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
